--- a/CIST1415/da2_lect2_170123_sales_data.xlsx
+++ b/CIST1415/da2_lect2_170123_sales_data.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Users\zhl172\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Users\zhl172\Documents\GitHub\CIST-\CIST1415\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92AEFCA-C708-40A4-A953-7DCE4524A8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABCE69E-D288-4F8A-A969-398DC7970975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{35206E97-F2C6-CE41-B88D-7C83197901D9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{35206E97-F2C6-CE41-B88D-7C83197901D9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Default" sheetId="1" r:id="rId1"/>
+    <sheet name="Analysis" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,8 +34,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="48">
   <si>
     <t>OrderDate</t>
   </si>
@@ -128,18 +151,77 @@
   <si>
     <t>Video Games</t>
   </si>
+  <si>
+    <t>Unique</t>
+  </si>
+  <si>
+    <t>Regions</t>
+  </si>
+  <si>
+    <t>Salesmen</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Total # of Sale</t>
+  </si>
+  <si>
+    <t>Average # of Sale</t>
+  </si>
+  <si>
+    <t>Total Sale # $</t>
+  </si>
+  <si>
+    <t>Average Sale # $</t>
+  </si>
+  <si>
+    <t>Highest Units</t>
+  </si>
+  <si>
+    <t>Lowest Units</t>
+  </si>
+  <si>
+    <t>Lowest Sale Amount on Single Order</t>
+  </si>
+  <si>
+    <t>Highest Sale Amount on Single Order</t>
+  </si>
+  <si>
+    <t># Managers</t>
+  </si>
+  <si>
+    <t># Salesmen</t>
+  </si>
+  <si>
+    <t># Items</t>
+  </si>
+  <si>
+    <t>Units Sold</t>
+  </si>
+  <si>
+    <t>Sales_Amt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -176,8 +258,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,8 +299,24 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -219,51 +339,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="43" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="43" fontId="5" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="4"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
+    <cellStyle name="20% - Accent5" xfId="5" builtinId="46"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
+    <cellStyle name="Input" xfId="4" builtinId="20"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -278,6 +425,4107 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.6469816272965882E-2"/>
+          <c:y val="0.17634259259259263"/>
+          <c:w val="0.89019685039370078"/>
+          <c:h val="0.63401246719160109"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Units Sold by Date</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Analysis!$A$2:$A$44</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy;@</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>43106</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43123</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43140</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43157</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43174</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43208</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43225</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43242</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43259</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43276</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43293</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43310</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43327</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43361</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43378</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43395</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43412</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43429</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43446</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43463</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43480</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43497</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43514</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43531</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43548</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43565</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43582</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43599</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43616</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43633</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43667</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43684</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43701</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43718</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43735</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43752</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43769</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43786</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43803</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43820</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Analysis!$F$2:$F$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-CECB-402F-8BB6-2A6B28AD9D38}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="173690576"/>
+        <c:axId val="173685584"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="173690576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yy;@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="173685584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="173685584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="173690576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Sales Amount by Day</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Analysis!$A$2:$A$44</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy;@</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>43106</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43123</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43140</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43157</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43174</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43208</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43225</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43242</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43259</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43276</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43293</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43310</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43327</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43361</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43378</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43395</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43412</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43429</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43446</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43463</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43480</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43497</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43514</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43531</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43548</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43565</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43582</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43599</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43616</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43633</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43667</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43684</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43701</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43718</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43735</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43752</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43769</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43786</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43803</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43820</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Analysis!$H$2:$H$44</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>113810</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6075</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67088</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>89850</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>107820</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38336</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>107820</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41930</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>936</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14400</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3375</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5616</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80266</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4329</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43500</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2925</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>79068</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>21600</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>63494</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3627</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3217.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2457</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8386</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17100</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>28500</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>16772</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>47000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4C6E-4ED1-A8FC-F1C05A7ADE88}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1750683152"/>
+        <c:axId val="2118497792"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1750683152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yy;@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2118497792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="2118497792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1750683152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sales Amount by Region</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Analysis!$X$25:$X$27</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>East</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Central</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>West</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Analysis!$AC$25:$AC$27</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>321007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>829769.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>154899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-E928-433D-B303-2C4E98FA4686}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Units Sold by Region</c:v>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Analysis!$X$25:$X$27</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>East</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Central</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>West</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Analysis!$AB$25:$AB$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>691</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>231</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-126D-4188-9B42-5F0C7F6D6B8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AAC2675-2D69-4C2E-993C-2AFA7CA591D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26AE1A08-2654-40EA-90DF-3873DF5519C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{778C56D8-7242-4917-AC60-061CE087F260}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F26211F-5EF9-4182-8069-7ACAA3244F75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -579,8 +4827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C42A8BD-4E3C-B749-965D-AAF1B9598268}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="A1:H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1785,4 +6033,1475 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62437495-737F-4BE8-83C2-022D278F627B}">
+  <dimension ref="A1:AC44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y50" sqref="Y50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.9140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.4140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>43106</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3">
+        <v>95</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1198</v>
+      </c>
+      <c r="H2" s="7">
+        <f>F2*G2</f>
+        <v>113810</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>43123</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3">
+        <v>50</v>
+      </c>
+      <c r="G3" s="1">
+        <v>500</v>
+      </c>
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:H44" si="0">F3*G3</f>
+        <v>25000</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3">
+        <f>SUM(F2:F44)</f>
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>43140</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3">
+        <v>36</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1198</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" si="0"/>
+        <v>43128</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="18">
+        <f>SUM(H2:H44)</f>
+        <v>1305675.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>43157</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="3">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1">
+        <v>225</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>6075</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>43174</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3">
+        <v>56</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1198</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>67088</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="17">
+        <f>AVERAGE(F2:F44)</f>
+        <v>49.325581395348834</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>43191</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3">
+        <v>60</v>
+      </c>
+      <c r="G7" s="1">
+        <v>500</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="18">
+        <f>AVERAGE(H2:H44)</f>
+        <v>30364.546511627908</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>43208</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="3">
+        <v>75</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1198</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>89850</v>
+      </c>
+      <c r="X8" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>43225</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="3">
+        <v>90</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1198</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
+        <v>107820</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9">
+        <f>MAX(F2:F44)</f>
+        <v>96</v>
+      </c>
+      <c r="X9" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA9" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>43242</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="3">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1198</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>38336</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10">
+        <f>MIN(F2:F44)</f>
+        <v>2</v>
+      </c>
+      <c r="X10" t="str" cm="1">
+        <f t="array" ref="X10:X14">_xlfn.UNIQUE(E2:E44)</f>
+        <v>Television</v>
+      </c>
+      <c r="Y10" t="str" cm="1">
+        <f t="array" ref="Y10:Y12">_xlfn.UNIQUE(B2:B44)</f>
+        <v>East</v>
+      </c>
+      <c r="Z10" t="str" cm="1">
+        <f t="array" ref="Z10:Z20">_xlfn.UNIQUE(D2:D44)</f>
+        <v>Alexander</v>
+      </c>
+      <c r="AA10" t="str" cm="1">
+        <f t="array" ref="AA10:AA13">_xlfn.UNIQUE(C2:C44)</f>
+        <v>Martha</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>43259</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="3">
+        <v>60</v>
+      </c>
+      <c r="G11" s="1">
+        <v>500</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+      <c r="X11" t="str">
+        <v>Home Theater</v>
+      </c>
+      <c r="Y11" t="str">
+        <v>Central</v>
+      </c>
+      <c r="Z11" t="str">
+        <v>Shelli</v>
+      </c>
+      <c r="AA11" t="str">
+        <v>Hermann</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>43276</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="3">
+        <v>90</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1198</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
+        <v>107820</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="18">
+        <f>MAX(H2:H44)</f>
+        <v>113810</v>
+      </c>
+      <c r="X12" t="str">
+        <v>Cell Phone</v>
+      </c>
+      <c r="Y12" t="str">
+        <v>West</v>
+      </c>
+      <c r="Z12" t="str">
+        <v>Luis</v>
+      </c>
+      <c r="AA12" t="str">
+        <v>Timothy</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>43293</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="3">
+        <v>29</v>
+      </c>
+      <c r="G13" s="1">
+        <v>500</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="0"/>
+        <v>14500</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="18">
+        <f>MIN(H2:H44)</f>
+        <v>250</v>
+      </c>
+      <c r="X13" t="str">
+        <v>Desk</v>
+      </c>
+      <c r="Z13" t="str">
+        <v>David</v>
+      </c>
+      <c r="AA13" t="str">
+        <v>Douglas</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>43310</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="3">
+        <v>81</v>
+      </c>
+      <c r="G14" s="1">
+        <v>500</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="0"/>
+        <v>40500</v>
+      </c>
+      <c r="X14" t="str">
+        <v>Video Games</v>
+      </c>
+      <c r="Z14" t="str">
+        <v>Stephen</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>43327</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="3">
+        <v>35</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1198</v>
+      </c>
+      <c r="H15" s="7">
+        <f t="shared" si="0"/>
+        <v>41930</v>
+      </c>
+      <c r="Z15" t="str">
+        <v>Steven</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>43344</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>125</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="Z16" t="str">
+        <v>Michael</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>43361</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="3">
+        <v>16</v>
+      </c>
+      <c r="G17" s="1">
+        <v>58.5</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" si="0"/>
+        <v>936</v>
+      </c>
+      <c r="Z17" t="str">
+        <v>Sigal</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="2">
+        <v>43378</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="3">
+        <v>28</v>
+      </c>
+      <c r="G18" s="1">
+        <v>500</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="0"/>
+        <v>14000</v>
+      </c>
+      <c r="Z18" t="str">
+        <v>Diana</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="2">
+        <v>43395</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="3">
+        <v>64</v>
+      </c>
+      <c r="G19" s="1">
+        <v>225</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" si="0"/>
+        <v>14400</v>
+      </c>
+      <c r="Z19" t="str">
+        <v>Karen</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="2">
+        <v>43412</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="3">
+        <v>15</v>
+      </c>
+      <c r="G20" s="1">
+        <v>225</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="0"/>
+        <v>3375</v>
+      </c>
+      <c r="Z20" t="str">
+        <v>John</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="2">
+        <v>43429</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="3">
+        <v>96</v>
+      </c>
+      <c r="G21" s="1">
+        <v>58.5</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="0"/>
+        <v>5616</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="2">
+        <v>43446</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="3">
+        <v>67</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1198</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="0"/>
+        <v>80266</v>
+      </c>
+      <c r="W22" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="X22" s="16">
+        <f>COUNTA(_xlfn.ANCHORARRAY(X10))</f>
+        <v>5</v>
+      </c>
+      <c r="Y22" s="16">
+        <f>COUNTA(_xlfn.ANCHORARRAY(Y10))</f>
+        <v>3</v>
+      </c>
+      <c r="Z22" s="16">
+        <f>COUNTA(_xlfn.ANCHORARRAY(Z10))</f>
+        <v>11</v>
+      </c>
+      <c r="AA22" s="16">
+        <f>COUNTA(_xlfn.ANCHORARRAY(AA10))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="2">
+        <v>43463</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="3">
+        <v>74</v>
+      </c>
+      <c r="G23" s="1">
+        <v>58.5</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="0"/>
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="2">
+        <v>43480</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="3">
+        <v>46</v>
+      </c>
+      <c r="G24" s="1">
+        <v>500</v>
+      </c>
+      <c r="H24" s="7">
+        <f t="shared" si="0"/>
+        <v>23000</v>
+      </c>
+      <c r="X24" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z24" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA24" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB24" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC24" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="2">
+        <v>43497</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="3">
+        <v>87</v>
+      </c>
+      <c r="G25" s="1">
+        <v>500</v>
+      </c>
+      <c r="H25" s="7">
+        <f t="shared" si="0"/>
+        <v>43500</v>
+      </c>
+      <c r="X25" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y25" cm="1">
+        <f t="array" ref="Y25">COUNTA(_xlfn.UNIQUE(_xlfn._xlws.FILTER($C$2:$C$44,$B$2:$B$44=X25)))</f>
+        <v>2</v>
+      </c>
+      <c r="Z25" cm="1">
+        <f t="array" ref="Z25">COUNTA(_xlfn.UNIQUE(_xlfn._xlws.FILTER($D$2:$D$44,$B$2:$B$44=X25)))</f>
+        <v>3</v>
+      </c>
+      <c r="AA25" cm="1">
+        <f t="array" ref="AA25">COUNTA(_xlfn.UNIQUE(_xlfn._xlws.FILTER($E$2:$E$44,$B$2:$B$44=X25)))</f>
+        <v>4</v>
+      </c>
+      <c r="AB25">
+        <f>SUMIF($B$2:$B$44,X25,$F$2:$F$44)</f>
+        <v>691</v>
+      </c>
+      <c r="AC25" s="18">
+        <f>SUMIF($B$2:$B$44,X25,$H$2:$H$44)</f>
+        <v>321007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="2">
+        <v>43514</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="3">
+        <v>4</v>
+      </c>
+      <c r="G26" s="1">
+        <v>500</v>
+      </c>
+      <c r="H26" s="7">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="X26" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y26" cm="1">
+        <f t="array" ref="Y26">COUNTA(_xlfn.UNIQUE(_xlfn._xlws.FILTER($C$2:$C$44,$B$2:$B$44=X26)))</f>
+        <v>4</v>
+      </c>
+      <c r="Z26" cm="1">
+        <f t="array" ref="Z26">COUNTA(_xlfn.UNIQUE(_xlfn._xlws.FILTER($D$2:$D$44,$B$2:$B$44=X26)))</f>
+        <v>6</v>
+      </c>
+      <c r="AA26" cm="1">
+        <f t="array" ref="AA26">COUNTA(_xlfn.UNIQUE(_xlfn._xlws.FILTER($E$2:$E$44,$B$2:$B$44=X26)))</f>
+        <v>5</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" ref="AB26:AB27" si="1">SUMIF($B$2:$B$44,X26,$F$2:$F$44)</f>
+        <v>1199</v>
+      </c>
+      <c r="AC26" s="18">
+        <f t="shared" ref="AC26:AC27" si="2">SUMIF($B$2:$B$44,X26,$H$2:$H$44)</f>
+        <v>829769.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="2">
+        <v>43531</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="3">
+        <v>7</v>
+      </c>
+      <c r="G27" s="1">
+        <v>500</v>
+      </c>
+      <c r="H27" s="7">
+        <f t="shared" si="0"/>
+        <v>3500</v>
+      </c>
+      <c r="X27" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y27" cm="1">
+        <f t="array" ref="Y27">COUNTA(_xlfn.UNIQUE(_xlfn._xlws.FILTER($C$2:$C$44,$B$2:$B$44=X27)))</f>
+        <v>2</v>
+      </c>
+      <c r="Z27" cm="1">
+        <f t="array" ref="Z27">COUNTA(_xlfn.UNIQUE(_xlfn._xlws.FILTER($D$2:$D$44,$B$2:$B$44=X27)))</f>
+        <v>2</v>
+      </c>
+      <c r="AA27" cm="1">
+        <f t="array" ref="AA27">COUNTA(_xlfn.UNIQUE(_xlfn._xlws.FILTER($E$2:$E$44,$B$2:$B$44=X27)))</f>
+        <v>4</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="1"/>
+        <v>231</v>
+      </c>
+      <c r="AC27" s="18">
+        <f t="shared" si="2"/>
+        <v>154899</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="2">
+        <v>43548</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="3">
+        <v>50</v>
+      </c>
+      <c r="G28" s="1">
+        <v>58.5</v>
+      </c>
+      <c r="H28" s="7">
+        <f t="shared" si="0"/>
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="2">
+        <v>43565</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="3">
+        <v>66</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1198</v>
+      </c>
+      <c r="H29" s="7">
+        <f t="shared" si="0"/>
+        <v>79068</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="2">
+        <v>43582</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="3">
+        <v>96</v>
+      </c>
+      <c r="G30" s="1">
+        <v>225</v>
+      </c>
+      <c r="H30" s="7">
+        <f t="shared" si="0"/>
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="2">
+        <v>43599</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="3">
+        <v>53</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1198</v>
+      </c>
+      <c r="H31" s="7">
+        <f t="shared" si="0"/>
+        <v>63494</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="2">
+        <v>43616</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="3">
+        <v>80</v>
+      </c>
+      <c r="G32" s="1">
+        <v>500</v>
+      </c>
+      <c r="H32" s="7">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="2">
+        <v>43633</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="3">
+        <v>5</v>
+      </c>
+      <c r="G33" s="1">
+        <v>125</v>
+      </c>
+      <c r="H33" s="7">
+        <f t="shared" si="0"/>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="2">
+        <v>43650</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="3">
+        <v>62</v>
+      </c>
+      <c r="G34" s="1">
+        <v>58.5</v>
+      </c>
+      <c r="H34" s="7">
+        <f t="shared" si="0"/>
+        <v>3627</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="2">
+        <v>43667</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="3">
+        <v>55</v>
+      </c>
+      <c r="G35" s="1">
+        <v>58.5</v>
+      </c>
+      <c r="H35" s="7">
+        <f t="shared" si="0"/>
+        <v>3217.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="2">
+        <v>43684</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="3">
+        <v>42</v>
+      </c>
+      <c r="G36" s="1">
+        <v>58.5</v>
+      </c>
+      <c r="H36" s="7">
+        <f t="shared" si="0"/>
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="2">
+        <v>43701</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="3">
+        <v>3</v>
+      </c>
+      <c r="G37" s="1">
+        <v>125</v>
+      </c>
+      <c r="H37" s="7">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="2">
+        <v>43718</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="3">
+        <v>7</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1198</v>
+      </c>
+      <c r="H38" s="7">
+        <f t="shared" si="0"/>
+        <v>8386</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="2">
+        <v>43735</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="3">
+        <v>76</v>
+      </c>
+      <c r="G39" s="1">
+        <v>225</v>
+      </c>
+      <c r="H39" s="7">
+        <f t="shared" si="0"/>
+        <v>17100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="2">
+        <v>43752</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="3">
+        <v>57</v>
+      </c>
+      <c r="G40" s="1">
+        <v>500</v>
+      </c>
+      <c r="H40" s="7">
+        <f t="shared" si="0"/>
+        <v>28500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="2">
+        <v>43769</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="3">
+        <v>14</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1198</v>
+      </c>
+      <c r="H41" s="7">
+        <f t="shared" si="0"/>
+        <v>16772</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="2">
+        <v>43786</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="3">
+        <v>11</v>
+      </c>
+      <c r="G42" s="1">
+        <v>500</v>
+      </c>
+      <c r="H42" s="7">
+        <f t="shared" si="0"/>
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="2">
+        <v>43803</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="3">
+        <v>94</v>
+      </c>
+      <c r="G43" s="1">
+        <v>500</v>
+      </c>
+      <c r="H43" s="7">
+        <f t="shared" si="0"/>
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="2">
+        <v>43820</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="3">
+        <v>28</v>
+      </c>
+      <c r="G44" s="1">
+        <v>500</v>
+      </c>
+      <c r="H44" s="7">
+        <f t="shared" si="0"/>
+        <v>14000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>